--- a/results/three_quarter_turn.txt_50_yaw.xlsx
+++ b/results/three_quarter_turn.txt_50_yaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D129C9-D004-46FC-A354-8E7B401090FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4265063-2FF9-42D8-B936-1AC763BFE77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_quarter_turn.txt_50_yaw" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,6 +578,4064 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Steering angle at 50km/h, three</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>-quarter turn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.6211508532704301E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3770537294921999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.9143511951640499E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.8608111238472203E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.1190653845544405E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.6055307058123304E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.122483983679995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.149859135608022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.177650041732381</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.21264447772261399</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.21818840556215299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.212105990851851</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.19680278891820199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.17434024349208099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.14642260936334101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.145444208630408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.108101576564839</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.7871722159606906E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.5900592460937798E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.68575222188291E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9605142968605203E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.101678348724674</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.14253098173421999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.18172307572426</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.218911273848344</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25383989478180702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.286331995202324</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.31628024693970003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34363772078182298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.37187672084635998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39622494606599701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.41705757562643397</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43473989497556997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.44961950281068702</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46202175660433398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.47224743223770699</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.470512933846366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.48049538306702999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.48830762653412502</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.494285658648774</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49872324504372401</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.50187596629697995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.50023528428714104</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.50299527073858097</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50464222848695295</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.50540053860314904</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50545820995429802</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50379414127837796</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50359103644176995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50286230826924705</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.50174921341894896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49793480903929999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.48921164612274598</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.46165865413398899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44177412333746202</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.41785714751895597</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.364663701806274</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.33397999546569002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26965585018953803</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.23473357691043301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.163653882811542</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.126660029333724</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.2816368570167499E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.68182025197103E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.51101255505151E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-9.4502061124398101E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.13245013425075</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.161615760510085</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.18237178260537801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.19681451937837399</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.20555476522993599</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.209980394546221</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.21074195306769899</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.208439836362836</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.20361906057731999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.19697540664229901</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.18854032609900701</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.179168047777893</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.16859189270605501</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.15775084809319301</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.146181954641632</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.13483849759095601</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.12314214155082299</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.111665890132229</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.100869900005675</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-9.0116234504720394E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-7.9895530865355502E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-7.0552703487621896E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-6.6393294276800394E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-6.5770754705889695E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.5013469180719194E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.4072650546169896E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-6.28727269881552E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-6.1290037146370498E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-5.9107344098032498E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ADE-4830-8B3D-AFDDF6072000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$C$2:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.77666192878198E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.9675143384680106E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.14943997234804601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.19906724146830199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.240204322793488</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.27428495343429998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.30257243380513699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.326165604467759</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.34599807261909399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.77792528537831196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.43639557881178997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.20201249053742601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.1809026904327199E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.117899416651589</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22427240293527001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.30316664578711999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.36021453341752901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40070664674346401</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.42922302909780002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.449403419982909</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46393836952546302</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.474709315348879</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.48298002621976999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.48957583182646303</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50082889210336901</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53158185963548199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.54939584788951601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55886428717450398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56324040282933996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.56465312001516799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56442631297256496</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56335653308076605</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.56191199946149195</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56036226037418402</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55885856166034398</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55748235483383501</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55627417439594495</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55525071515962998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.55441490479495703</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.55376184186254096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.55328229782697602</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.55296478288228101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.55279676319348503</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.38713791759628902</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.630878634431569</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.42412059069608898</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.26844666986709698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.15784978119170301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.7311206464272199E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-8.1052718290928905E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.102688974441678</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.12359370334452199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.209066370986215</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.205117282647403</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.28471190885038</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.26268139768945897</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.31521534440621002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.25337943544206598</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.212100310995126</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.18134152409426699</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.15482410953887299</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.13329973569460801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.11553345649803699</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.10066635617174</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-8.8083921382834607E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-7.7335641896844498E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-6.8083931741721199E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-5.9530239060309201E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-5.2813309512573903E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.6887344893103401E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-4.1649642487235898E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-3.6674397660085602E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-3.2728534273781001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.9193916874234699E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.60314940137748E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.29904015812393E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.0568272414315001E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.8383967718725702E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.6266738009124999E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.4575634759332301E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.3043907027521401E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-9.3821202990683403E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.3967624808818901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ADE-4830-8B3D-AFDDF6072000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$D$2:$D$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.51178244691908E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.11690937300837401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.16468952967174</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.202446946336307</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.232955420637002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.25818157177417</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.27952771261652198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.29799448539206602</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.31429642492235599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.69356738239289895</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.35942358584677803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.172441631126666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.3115316967895202E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1852729880046897E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.123451133764131</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17827862518040799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.220851899961168</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25445483738952601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28151490487810998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16095980317715</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.235918526988079</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28945150405227699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32776859943092901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.35562802684421502</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37649012898004203</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57838957196210095</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.30823115534384898</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-4.6796338364759604E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.35191924504550698</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65536763039658896</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.34142978812510799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42161144403489997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.71395373718788901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.15661237635608399</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77752789355147101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.37882414613349202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.697605916602973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36354688745124197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69206296259969502</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.60186947094223897</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.56931198425983598</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55690944240647999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55330016335816701</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.55378608321543699</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.55619837605949396</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.52776216714893498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.33698659440419598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.20313872497236099</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.10958714023879799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4205420218936399E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.6275028487199601E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-8.9456542771673794E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.100570309562238</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.17097396027946599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.161944748213704</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.23277031579861601</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.208769900926563</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.18095564012799101</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.15232066617399401</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.12949814516342301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.113520737254305</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-9.9477016160916795E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-8.8284541608237399E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-7.9093185325019605E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-7.1347827028416494E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-6.4680500933843602E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-5.88433390871042E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-5.36662283342847E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-4.90297967172433E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.4848058360184601E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4.1057207290730202E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-3.7608352952182997E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.4044205085605302E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3.1381780415927603E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.8884049134452999E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.6556521079685001E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.41001260296607E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.2255027160136599E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.0508250557617E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.8870661736267402E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.7133875011788001E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.5827510741419099E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-9.5800995803027797E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-6.0651656703045896E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-4.0084202744414899E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.7604837853554302E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1ADE-4830-8B3D-AFDDF6072000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw!$E$2:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.77666192878198E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.9675143384680106E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.14943997234804601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.19906724146830199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.240204322793488</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.27428495343429998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.30257243380513699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.326165604467759</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.34599807261909399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78539816339744795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.29566122247969201</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.252139754786943</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.20473860614231501</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.15473501651181901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.103225236997826</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.11662604383845E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.0201492248007605E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.1347677301524397E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.100444839690796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14737414641612201</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.191722543898906</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23318055591113401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.27153650997361301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.45983610822051402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46382478877436001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46809259537676801</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.47244508126426998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.47676163910951602</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.348353055191578</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.547708629520403</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55457253650802796</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.55737426269633805</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55784820344697506</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.55707935446509405</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55572419973605103</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.554168666017402</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.55263240216382403</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.35347046530873399</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.383880843441606</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.381999955830642</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.41289748138159899</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43860933486468101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.45974426444194499</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.47687782705937798</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.49054275632475602</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.493550622050419</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.48605308953918303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.47456188971254298</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.45849915128456797</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.418468616870873</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.39322557975533801</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.33807283083594902</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30679139062520899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24172962467234599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20677673582717301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.135953917417975</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.9407281061400704E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.6673520448176499E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-9.9742575101243597E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-6.0171036928445103E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-9.9299709321565802E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.12994709523405501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.152352532664698</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.35738331369467902</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.305875080560982</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.26296625170197302</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.228673500442656</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.198584182762614</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.17548210938381401</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.154029099888395</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.13586884099480301</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.12027187334533</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.106729165031972</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-9.4874212354172399E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-8.4434875195835105E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-7.4506032709633102E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-6.6649297406729202E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-5.9591934235423097E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-5.3256537737220701E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-4.7130638225898802E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-4.2247514446305701E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-3.7826640194215298E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-3.3835954772092003E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.9960682205662899E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.6865103281531501E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.4057559777138301E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.03160404435518E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.2918858901022399E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.2001960499360498E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1ADE-4830-8B3D-AFDDF6072000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="999136864"/>
+        <c:axId val="999131872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="999136864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999131872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="999131872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Steering angle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999136864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0650CEDF-0137-456B-BC39-79B67BF5CC3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -874,11 +4932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:A150"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="S102" sqref="S102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2912,5 +6970,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/three_quarter_turn.txt_50_yaw.xlsx
+++ b/results/three_quarter_turn.txt_50_yaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4265063-2FF9-42D8-B936-1AC763BFE77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2C26A-1F2A-4FE7-9CBE-F78E20840A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_quarter_turn.txt_50_yaw" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>Stanley with lookahead</t>
   </si>
   <si>
-    <t>Hybrid Stanley and Pure Pursuit</t>
+    <t>Combined Stanley and Pure Pursuit</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2955,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                  <c:v>Combined Stanley and Pure Pursuit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4935,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="S102" sqref="S102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
